--- a/biology/Zoologie/Chlosyne/Chlosyne.xlsx
+++ b/biology/Zoologie/Chlosyne/Chlosyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne est un genre de lépidoptères de la famille des Nymphalidae, de la sous-famille des Nymphalinae et de la tribu des Melitaeini.
 Toutes ses espèces résident en Amérique.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Chlosyne leur a été donné par Arthur Gardiner Butler en 1870.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (21 avr. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (21 avr. 2010) :
 Chlosyne acastus  (W. H. Edwards, 1874) Sagebrush Checkerspot
 Chlosyne acastus neumoegeni (Skinner, 1895) Desert Checkerspot
 Chlosyne acastus sabina (Wright, 1905)
@@ -564,7 +580,7 @@
 Chlosyne erodyle  (H. W. Bates, 1864)
 Chlosyne erodyle erodyle
 Chlosyne erodyle poecile (C. &amp; R. Felder, 1867)
-Chlosyne erodyle rubrigutta Röber, [1914]
+Chlosyne erodyle rubrigutta Röber, 
 Chlosyne erodyle ssp
 Chlosyne eumeda  (Godman &amp; Salvin, 1894)
 Chlosyne fulvia  (W. H. Edwards, 1879)
@@ -587,18 +603,18 @@
 Chlosyne hippodrome fabricii Higgins, 1960
 Chlosyne hoffmanni  (Behr, 1863)
 Chlosyne hoffmanni segregata Barnes &amp; McDunnough, 1918
-Chlosyne hoffmanni manchada Bauer, [1960]
+Chlosyne hoffmanni manchada Bauer, 
 Chlosyne janais  (Drury, 1782)
 Chlosyne janais janais
-Chlosyne janais gloriosa Bauer, [1960]
-Chlosyne janais marianna Röber, [1914]
+Chlosyne janais gloriosa Bauer, 
+Chlosyne janais marianna Röber, 
 Chlosyne lacinia  (Geyer, 1837)
 Chlosyne lacinia lacinia
 Chlosyne lacinia adjutrix (Scudder, 1875)
 Chlosyne lacinia crocale (Edwards, 1874)
-Chlosyne lacinia saundersi (Doubleday, [1847])
+Chlosyne lacinia saundersi (Doubleday, )
 Chlosyne leanira  (C. Felder &amp; R. Felder, 1860)
-Chlosyne leanira alma Strecker, [1878]
+Chlosyne leanira alma Strecker, 
 Chlosyne leanira austrima (Austin &amp; Smith, 1998)
 Chlosyne leanira cerrita Wright, 1905
 Chlosyne leanira elegans Preistaf &amp; Emmel, 1998
@@ -611,7 +627,7 @@
 Chlosyne melitaeoides  (C. Felder &amp; R. Felder, 1867)
 Chlosyne narva (Fabricius, 1793)
 Chlosyne narva narva
-Chlosyne narva bonpland (Latreille, [1809])
+Chlosyne narva bonpland (Latreille, )
 Chlosyne nycteis  (E. Doubleday, 1847)
 Chlosyne nycteis nycteis
 Chlosyne nycteis drusius Edwards, 1884
@@ -624,13 +640,13 @@
 Chlosyne palla vallismortis F. Johnson, 1938
 Chlosyne rosita  A. Hall, 1924
 Chlosyne rosita rosita
-Chlosyne rosita browni Bauer, [1961]
+Chlosyne rosita browni Bauer, 
 Chlosyne rosita mazarum Miller &amp; Rotger, 1979
 Chlosyne rosita montana Hall, 1924
-Chlosyne rosita riobalsensis Bauer, [1961]
+Chlosyne rosita riobalsensis Bauer, 
 Chlosyne theona  (Ménétriés, 1855)
 Chlosyne theona theona
-Chlosyne theona bollii (Edwards, [1878])
+Chlosyne theona bollii (Edwards, )
 Chlosyne theona brocki (Austin &amp; Smith, 1998)
 Chlosyne theona chinatiensis (Tinkham, 1944)
 Chlosyne theona costaricensis (Austin &amp; Miller, 1998)
@@ -643,7 +659,7 @@
 Chlosyne whitneyi  (Behr, 1863)
 Chlosyne whitneyi damoetas (Skinner, 1902) Rockslide Checkerspot
 Chlosyne whitneyi malcolmi Comstock, 1926
-Selon NCBI  (21 avr. 2010)[2] :
+Selon NCBI  (21 avr. 2010) :
 Chlosyne acastus
 Chlosyne californica
 Chlosyne cyneas
